--- a/quest.xlsx
+++ b/quest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\Python\Projects\grant-database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{412DD4AB-97FD-42AA-8ED3-46B71CAEC3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A5EA69-56A7-4521-A490-020D86F10DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{ADDF532E-E7AC-4875-8DDD-E8CBC62CD598}"/>
   </bookViews>
@@ -703,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D88167-8329-4283-B76E-438C77DACB4C}">
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87:B92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -740,9 +740,6 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
@@ -808,421 +805,426 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>36</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B32" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
         <v>39</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C34" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C38" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>45</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B39" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>54</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B47" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
         <v>57</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C49" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C51" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>61</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B52" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B58" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>69</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B59" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>76</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B65" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B71" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
         <v>84</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B72" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B82" t="s">
         <v>95</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C82" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C82" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C83" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B83" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B87" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
         <v>102</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B88" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B93" t="s">
         <v>108</v>
       </c>
     </row>
